--- a/docs/StructureDefinition-VADrug.xlsx
+++ b/docs/StructureDefinition-VADrug.xlsx
@@ -342,6 +342,129 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medication-supplyType</t>
+  </si>
+  <si>
+    <t>SUPPLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-supplyType}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This field is used to indicate whether or not the Orderable Item is a supply, 1 indicating a supply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PHARMACY ORDERABLE ITEM @SUPPLY 50.7-.09</t>
+  </si>
+  <si>
+    <t>medication-nationalFormularyStatus</t>
+  </si>
+  <si>
+    <t>FORMULARY STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-nationalFormularyStatus}
+</t>
+  </si>
+  <si>
+    <t>This field will designate the formulary status of the orderable item. The non-formulary status will be displayed to the provider next to the selectable list of orderable item(s) during CPRS order entry (List Manager and GUI). This field is not editable. It is controlled by the software. An Orderable Item will only be marked as non-formulary if there are no active Dispense Drugs matched to the item that are formulary drugs.</t>
+  </si>
+  <si>
+    <t>PHARMACY ORDERABLE ITEM @FORMULARY STATUS 50.7-5</t>
+  </si>
+  <si>
+    <t>medication-controlledSubstanceSchedule</t>
+  </si>
+  <si>
+    <t>CS FEDERAL SCHEDULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-controlledSubstanceSchedule}
+</t>
+  </si>
+  <si>
+    <t>This is the Federal Schedule for controlled substances.</t>
+  </si>
+  <si>
+    <t>VA PRODUCT FILE @CS FEDERAL SCHEDULE 50.68-19</t>
+  </si>
+  <si>
+    <t>medication-cmopDispense</t>
+  </si>
+  <si>
+    <t>CMOP DISPENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-cmopDispense}
+</t>
+  </si>
+  <si>
+    <t>Indicates if this drug may be dispensed from the Consolidated Mail Outpatient Pharmacy System.</t>
+  </si>
+  <si>
+    <t>DRUG @CMOP DISPENSE 50-213</t>
+  </si>
+  <si>
+    <t>medication-deaSpecialHandling</t>
+  </si>
+  <si>
+    <t>DEA, SPECIAL HDLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-deaSpecialHandling}
+</t>
+  </si>
+  <si>
+    <t>This field is used to show the DEA Special Handling .</t>
+  </si>
+  <si>
+    <t>DRUG @DEA, SPECIAL HDLG 50-3</t>
+  </si>
+  <si>
+    <t>medication-inactiveDate</t>
+  </si>
+  <si>
+    <t>INACTIVE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-inactiveDate}
+</t>
+  </si>
+  <si>
+    <t>This is the date the drug is inactive.</t>
+  </si>
+  <si>
+    <t>DRUG @INACTIVE DATE 50-100</t>
+  </si>
+  <si>
+    <t>medication-packagesUsingDrug</t>
+  </si>
+  <si>
+    <t>PACKAGES' USE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-packagesUsingDrug}
+</t>
+  </si>
+  <si>
+    <t>This field is free text, but contains the codes of the DHCP packages that consider this drug part of its formulary.  This field is set through the routine ^PSGIU, and NOT through VA FileMan.   NOTES: Uneditable through VA FileMan.</t>
+  </si>
+  <si>
+    <t>DRUG @PACKAGES' USE 50-63</t>
+  </si>
+  <si>
     <t>medication-localFormularyStatus</t>
   </si>
   <si>
@@ -352,133 +475,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This is used to designate the drug as non-formulary.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>DRUG @LOCAL NON-FORMULARY 50-51</t>
-  </si>
-  <si>
-    <t>medication-packagesUsingDrug</t>
-  </si>
-  <si>
-    <t>PACKAGES' USE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-packagesUsingDrug}
-</t>
-  </si>
-  <si>
-    <t>This field is free text, but contains the codes of the DHCP packages that consider this drug part of its formulary.  This field is set through the routine ^PSGIU, and NOT through VA FileMan.   NOTES: Uneditable through VA FileMan.</t>
-  </si>
-  <si>
-    <t>DRUG @PACKAGES' USE 50-63</t>
-  </si>
-  <si>
-    <t>medication-inactiveDate</t>
-  </si>
-  <si>
-    <t>INACTIVE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-inactiveDate}
-</t>
-  </si>
-  <si>
-    <t>This is the date the drug is inactive.</t>
-  </si>
-  <si>
-    <t>DRUG @INACTIVE DATE 50-100</t>
-  </si>
-  <si>
-    <t>medication-deaSpecialHandling</t>
-  </si>
-  <si>
-    <t>DEA, SPECIAL HDLG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-deaSpecialHandling}
-</t>
-  </si>
-  <si>
-    <t>This field is used to show the DEA Special Handling .</t>
-  </si>
-  <si>
-    <t>DRUG @DEA, SPECIAL HDLG 50-3</t>
-  </si>
-  <si>
-    <t>medication-cmopDispense</t>
-  </si>
-  <si>
-    <t>CMOP DISPENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-cmopDispense}
-</t>
-  </si>
-  <si>
-    <t>Indicates if this drug may be dispensed from the Consolidated Mail Outpatient Pharmacy System.</t>
-  </si>
-  <si>
-    <t>DRUG @CMOP DISPENSE 50-213</t>
-  </si>
-  <si>
-    <t>medication-controlledSubstanceSchedule</t>
-  </si>
-  <si>
-    <t>CS FEDERAL SCHEDULE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-controlledSubstanceSchedule}
-</t>
-  </si>
-  <si>
-    <t>This is the Federal Schedule for controlled substances.</t>
-  </si>
-  <si>
-    <t>VA PRODUCT FILE @CS FEDERAL SCHEDULE 50.68-19</t>
-  </si>
-  <si>
-    <t>medication-nationalFormularyStatus</t>
-  </si>
-  <si>
-    <t>FORMULARY STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-nationalFormularyStatus}
-</t>
-  </si>
-  <si>
-    <t>This field will designate the formulary status of the orderable item. The non-formulary status will be displayed to the provider next to the selectable list of orderable item(s) during CPRS order entry (List Manager and GUI). This field is not editable. It is controlled by the software. An Orderable Item will only be marked as non-formulary if there are no active Dispense Drugs matched to the item that are formulary drugs.</t>
-  </si>
-  <si>
-    <t>PHARMACY ORDERABLE ITEM @FORMULARY STATUS 50.7-5</t>
-  </si>
-  <si>
-    <t>medication-supplyType</t>
-  </si>
-  <si>
-    <t>SUPPLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medication-supplyType}
-</t>
-  </si>
-  <si>
-    <t>This field is used to indicate whether or not the Orderable Item is a supply, 1 indicating a supply.</t>
-  </si>
-  <si>
-    <t>PHARMACY ORDERABLE ITEM @SUPPLY 50.7-.09</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
